--- a/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
   <si>
     <t>Serie</t>
   </si>
@@ -1172,6 +1172,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1532,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G380"/>
+  <dimension ref="A1:G381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7502,8 +7505,28 @@
       <c r="B380">
         <v>0.01</v>
       </c>
+      <c r="C380">
+        <v>76.44</v>
+      </c>
       <c r="D380">
-        <v>0</v>
+        <v>0.85</v>
+      </c>
+      <c r="E380">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" t="s">
+        <v>386</v>
+      </c>
+      <c r="B381">
+        <v>0.01</v>
+      </c>
+      <c r="D381">
+        <v>0.78</v>
+      </c>
+      <c r="F381">
+        <v>2.86</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
@@ -7522,11 +7522,20 @@
       <c r="B381">
         <v>0.01</v>
       </c>
+      <c r="C381">
+        <v>57.88</v>
+      </c>
       <c r="D381">
-        <v>0.78</v>
+        <v>0.93</v>
+      </c>
+      <c r="E381">
+        <v>2.88</v>
       </c>
       <c r="F381">
-        <v>2.86</v>
+        <v>2.55</v>
+      </c>
+      <c r="G381">
+        <v>35.01</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
   <si>
     <t>Serie</t>
   </si>
@@ -1175,6 +1175,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1532,7 +1535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G381"/>
+  <dimension ref="A1:G382"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7538,6 +7541,20 @@
         <v>35.01</v>
       </c>
     </row>
+    <row r="382" spans="1:7">
+      <c r="A382" t="s">
+        <v>387</v>
+      </c>
+      <c r="B382">
+        <v>0.01</v>
+      </c>
+      <c r="D382">
+        <v>0.01</v>
+      </c>
+      <c r="F382">
+        <v>2.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
@@ -7548,11 +7548,20 @@
       <c r="B382">
         <v>0.01</v>
       </c>
+      <c r="C382">
+        <v>91.31999999999999</v>
+      </c>
       <c r="D382">
-        <v>0.01</v>
+        <v>0.03</v>
+      </c>
+      <c r="E382">
+        <v>56.75</v>
       </c>
       <c r="F382">
-        <v>2.64</v>
+        <v>1.9</v>
+      </c>
+      <c r="G382">
+        <v>261.83</v>
       </c>
     </row>
   </sheetData>

--- a/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="389">
   <si>
     <t>Serie</t>
   </si>
@@ -1178,6 +1178,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1538,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G382"/>
+  <dimension ref="A1:G383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7564,6 +7567,20 @@
         <v>261.83</v>
       </c>
     </row>
+    <row r="383" spans="1:7">
+      <c r="A383" t="s">
+        <v>388</v>
+      </c>
+      <c r="B383">
+        <v>0.01</v>
+      </c>
+      <c r="D383">
+        <v>2.87</v>
+      </c>
+      <c r="F383">
+        <v>4.03</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
+++ b/3/5/3/Reajustables 1990 a 2021 - Mensual.xlsx
@@ -7572,13 +7572,22 @@
         <v>388</v>
       </c>
       <c r="B383">
-        <v>0.01</v>
+        <v>0.2</v>
+      </c>
+      <c r="C383">
+        <v>174.75</v>
       </c>
       <c r="D383">
-        <v>2.87</v>
+        <v>1.98</v>
+      </c>
+      <c r="E383">
+        <v>103.14</v>
       </c>
       <c r="F383">
-        <v>4.03</v>
+        <v>3.02</v>
+      </c>
+      <c r="G383">
+        <v>786.46</v>
       </c>
     </row>
   </sheetData>
